--- a/tb_states78.xlsx
+++ b/tb_states78.xlsx
@@ -19,54 +19,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>names</t>
+    <t>3.5</t>
   </si>
   <si>
-    <t>t</t>
+    <t>"state"</t>
   </si>
   <si>
-    <t>h</t>
+    <t>"P"</t>
   </si>
   <si>
-    <t>j</t>
+    <t>"V"</t>
   </si>
   <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>jj</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>3.5</t>
+    <t>"T"</t>
   </si>
 </sst>
 </file>
@@ -387,33 +354,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
@@ -423,14 +387,11 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
@@ -442,12 +403,9 @@
       <c r="D3">
         <v>7</v>
       </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
@@ -459,16 +417,13 @@
       <c r="D4">
         <v>4</v>
       </c>
-      <c r="E4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>8.14</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -476,12 +431,9 @@
       <c r="D5">
         <v>7</v>
       </c>
-      <c r="E5">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
@@ -491,32 +443,26 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>0.09</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -525,15 +471,12 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -544,30 +487,24 @@
       <c r="D9">
         <v>6</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="D10">
         <v>7</v>
       </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -578,13 +515,10 @@
       <c r="D11">
         <v>7</v>
       </c>
-      <c r="E11">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12">
         <v>9</v>
@@ -595,16 +529,13 @@
       <c r="D12">
         <v>8</v>
       </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -612,13 +543,10 @@
       <c r="D13">
         <v>9</v>
       </c>
-      <c r="E13">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -628,9 +556,6 @@
       </c>
       <c r="D14">
         <v>64</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/tb_states78.xlsx
+++ b/tb_states78.xlsx
@@ -19,21 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>3.5</t>
-  </si>
-  <si>
-    <t>"state"</t>
-  </si>
-  <si>
-    <t>"P"</t>
-  </si>
-  <si>
-    <t>"V"</t>
-  </si>
-  <si>
-    <t>"T"</t>
   </si>
 </sst>
 </file>
@@ -357,23 +345,27 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
+      <c r="A1" t="str">
+        <f>"state"</f>
+        <v>state</v>
+      </c>
+      <c r="B1" t="str">
+        <f>"P"</f>
+        <v>P</v>
+      </c>
+      <c r="C1" t="str">
+        <f>"V"</f>
+        <v>V</v>
+      </c>
+      <c r="D1" t="str">
+        <f>"T"</f>
+        <v>T</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
